--- a/app/src/main/resources/DOWNLOAD_PERSONAL_FICHAS.xlsx
+++ b/app/src/main/resources/DOWNLOAD_PERSONAL_FICHAS.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20385"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20386"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Sigma\sigma_web_backend_api\app\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F265FBC-8BDC-4F05-A4C4-EC7129307E6F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF3FBB50-C44F-4F0C-ABD2-EC220071C8C1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{5A150F25-885F-43DA-A656-DE7C92D3B68C}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>CODIGO</t>
   </si>
@@ -64,6 +64,9 @@
   </si>
   <si>
     <t>REGISTRO FICHA</t>
+  </si>
+  <si>
+    <t>FECHA</t>
   </si>
 </sst>
 </file>
@@ -511,10 +514,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3D432F6-56ED-4B46-9EAD-05C4C43CDC61}">
-  <dimension ref="A1:M1"/>
+  <dimension ref="A1:N1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -533,7 +536,7 @@
     <col min="13" max="16384" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -573,31 +576,12 @@
       <c r="M1" s="3" t="s">
         <v>12</v>
       </c>
+      <c r="N1" s="3" t="s">
+        <v>13</v>
+      </c>
     </row>
   </sheetData>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L2:L49" xr:uid="{B1EF4298-0D8E-4345-A382-84A4E0E2E999}">
-      <formula1>$A$58:$A$59</formula1>
-    </dataValidation>
-  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{AE460759-4582-4CAA-966C-AE83171A5E80}">
-          <x14:formula1>
-            <xm:f>#REF!</xm:f>
-          </x14:formula1>
-          <xm:sqref>E2:E49</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{DE6C1904-7476-400C-9DA1-9BC927D7C5AE}">
-          <x14:formula1>
-            <xm:f>#REF!</xm:f>
-          </x14:formula1>
-          <xm:sqref>J2:J49</xm:sqref>
-        </x14:dataValidation>
-      </x14:dataValidations>
-    </ext>
-  </extLst>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
 </worksheet>
 </file>
--- a/app/src/main/resources/DOWNLOAD_PERSONAL_FICHAS.xlsx
+++ b/app/src/main/resources/DOWNLOAD_PERSONAL_FICHAS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Sigma\sigma_web_backend_api\app\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF3FBB50-C44F-4F0C-ABD2-EC220071C8C1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB2350F2-C582-4CEC-9316-AC320B00B6E7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{5A150F25-885F-43DA-A656-DE7C92D3B68C}"/>
   </bookViews>
@@ -27,9 +27,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
-    <t>CODIGO</t>
-  </si>
-  <si>
     <t>NOMBRES</t>
   </si>
   <si>
@@ -63,10 +60,13 @@
     <t>OBSERVACIONES</t>
   </si>
   <si>
-    <t>REGISTRO FICHA</t>
-  </si>
-  <si>
     <t>FECHA</t>
+  </si>
+  <si>
+    <t>REGISTRO FICHA?</t>
+  </si>
+  <si>
+    <t>CODIGO FICHA</t>
   </si>
 </sst>
 </file>
@@ -517,13 +517,13 @@
   <dimension ref="A1:N1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.140625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="19.140625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.42578125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="25.42578125" style="1" customWidth="1"/>
     <col min="3" max="3" width="19.7109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="16.28515625" style="1" customWidth="1"/>
     <col min="5" max="6" width="13.5703125" style="1" customWidth="1"/>
@@ -538,46 +538,46 @@
   <sheetData>
     <row r="1" spans="1:14" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="C1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="D1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="5" t="s">
         <v>4</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>5</v>
       </c>
       <c r="G1" s="5" t="s">
         <v>6</v>
       </c>
       <c r="H1" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="J1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="K1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="L1" s="3" t="s">
         <v>10</v>
-      </c>
-      <c r="L1" s="3" t="s">
-        <v>11</v>
       </c>
       <c r="M1" s="3" t="s">
         <v>12</v>
       </c>
       <c r="N1" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
